--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ca714285c9f9cec0/Escritorio/Prueba Informe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AD4D2F04E46CFB4ACB3E20ACAD90CE1C683EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8DDBAF8-26EE-4FCE-B340-70416268B2C8}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_AD4D2F04E46CFB4ACB3E20ACAD90CE1C683EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{633D6193-60AB-402C-991F-7FC4E13D2340}"/>
   <bookViews>
-    <workbookView xWindow="33045" yWindow="3630" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39285" yWindow="3630" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID POSTULACIÓN:</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Los queñoas 1992</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,57 +406,65 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>208241</v>
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>208241</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>950224963</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>950224963</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>186602111010495</v>
       </c>
     </row>
